--- a/WP IVA IIBB.xlsx
+++ b/WP IVA IIBB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F455065-0AE9-4C3B-A9CB-708BEC4B08B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4732B314-86B7-4113-9AD1-D6D122542E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$K$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$N$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
   <si>
     <t>Nro</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>No esta en le SOS</t>
+  </si>
+  <si>
+    <t>Ubicación Base</t>
+  </si>
+  <si>
+    <t>C:\Users\Agustin Bustos\Desktop\Clientes</t>
+  </si>
+  <si>
+    <t>Ubicación IVA</t>
+  </si>
+  <si>
+    <t>Ubicación IIBB</t>
   </si>
 </sst>
 </file>
@@ -893,11 +905,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,11 +918,11 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,22 +942,31 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -963,28 +984,39 @@
       <c r="E2" s="1">
         <v>44958</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G33" si="1">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ","WP IVA - ",TEXT(G2,"AAAAMM")," - ",B2)</f>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>G2&amp;"\"&amp;B2&amp;"\IVA\"&amp;YEAR(E2)&amp;"\"&amp;MONTH(E2)&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\IVA\2023\2\</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>G2&amp;"\"&amp;B2&amp;"\IIBB\"&amp;YEAR(E2)&amp;"\"&amp;MONTH(E2)</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\IIBB\2023\2</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" ref="J2:J33" si="1">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ","WP IVA - ",TEXT(J2,"AAAAMM")," - ",B2)</f>
         <v>0 - 20168291680 - WP IVA - 202302 - CRIVELLO LUIS</v>
       </c>
-      <c r="I2" s="3" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ","WP IIBB - ",TEXT(G2,"AAAAMM")," - ",B2)</f>
+      <c r="L2" s="3" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ","WP IIBB - ",TEXT(J2,"AAAAMM")," - ",B2)</f>
         <v>0 - 20168291680 - WP IIBB - 202302 - CRIVELLO LUIS</v>
       </c>
-      <c r="J2" s="4">
-        <f t="shared" ref="J2:J33" si="2">ROW(A2)</f>
+      <c r="M2" s="4">
+        <f t="shared" ref="M2:M33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="str">
-        <f t="shared" ref="K2:K33" si="3">RIGHT(D2,1)</f>
+      <c r="N2" s="4" t="str">
+        <f t="shared" ref="N2:N33" si="3">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1002,28 +1034,39 @@
       <c r="E3" s="1">
         <v>44958</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>G3&amp;"\"&amp;B3&amp;"\IVA\"&amp;YEAR(E3)&amp;"\"&amp;MONTH(E3)&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\IVA\2023\2\</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3" si="4">G3&amp;"\"&amp;B3&amp;"\IIBB\"&amp;YEAR(E3)&amp;"\"&amp;MONTH(E3)</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\IIBB\2023\2</v>
+      </c>
+      <c r="J3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H66" si="4">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IVA - ",TEXT(G3,"AAAAMM")," - ",B3)</f>
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:K66" si="5">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IVA - ",TEXT(J3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - WP IVA - 202302 - VARENIZA ANGEL</v>
       </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I66" si="5">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IIBB - ",TEXT(G3,"AAAAMM")," - ",B3)</f>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L66" si="6">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IIBB - ",TEXT(J3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - WP IIBB - 202302 - VARENIZA ANGEL</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="N3" s="4" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1043,28 +1086,36 @@
       <c r="F4" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="H4" s="4" t="str">
+        <f t="shared" ref="H4:H67" si="7">G4&amp;"\"&amp;B4&amp;"\IVA\"&amp;YEAR(E4)&amp;"\"&amp;MONTH(E4)</f>
+        <v>\BEITIA TOMAS\IVA\2022\7</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ref="I4:I67" si="8">G4&amp;"\"&amp;B4&amp;"\IIBB\"&amp;YEAR(E4)&amp;"\"&amp;MONTH(E4)</f>
+        <v>\BEITIA TOMAS\IIBB\2022\7</v>
+      </c>
+      <c r="J4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Julio 2022</v>
       </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>0 - 20364074310 - WP IVA - 202207 - BEITIA TOMAS</v>
       </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>0 - 20364074310 - WP IIBB - 202207 - BEITIA TOMAS</v>
       </c>
-      <c r="J4" s="4">
+      <c r="M4" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="N4" s="4" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1081,28 +1132,39 @@
       <c r="E5" s="1">
         <v>44958</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" ref="H5:H18" si="9">G5&amp;"\"&amp;B5&amp;"\IVA\"&amp;YEAR(E5)&amp;"\"&amp;MONTH(E5)&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\IVA\2023\2\</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\IIBB\2023\2</v>
+      </c>
+      <c r="J5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>0 - 27067089680 - WP IVA - 202302 - SESMERO TERESITA</v>
       </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>0 - 27067089680 - WP IIBB - 202302 - SESMERO TERESITA</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="N5" s="4" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1119,28 +1181,36 @@
       <c r="E6" s="1">
         <v>44958</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\URRUTIA MIRIAM\IVA\2023\2\</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\URRUTIA MIRIAM\IIBB\2023\2</v>
+      </c>
+      <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>0 - 27116976620 - WP IVA - 202302 - URRUTIA MIRIAM</v>
       </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>0 - 27116976620 - WP IIBB - 202302 - URRUTIA MIRIAM</v>
       </c>
-      <c r="J6" s="4">
+      <c r="M6" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="N6" s="4" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1157,28 +1227,36 @@
       <c r="E7" s="1">
         <v>44958</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\MEDINT SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\MEDINT SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>0 - 30657146850 - WP IVA - 202302 - MEDINT SRL</v>
       </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>0 - 30657146850 - WP IIBB - 202302 - MEDINT SRL</v>
       </c>
-      <c r="J7" s="4">
+      <c r="M7" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="N7" s="4" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1195,28 +1273,36 @@
       <c r="E8" s="1">
         <v>44958</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\FERREYRA CARLOS ALFREDO\IVA\2023\2\</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERREYRA CARLOS ALFREDO\IIBB\2023\2</v>
+      </c>
+      <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 20133762761 - WP IVA - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 20133762761 - WP IIBB - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
-      <c r="J8" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="N8" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1233,28 +1319,36 @@
       <c r="E9" s="1">
         <v>44958</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\SZYCHOWSKI MARCELO\IVA\2023\2\</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SZYCHOWSKI MARCELO\IIBB\2023\2</v>
+      </c>
+      <c r="J9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 20149462601 - WP IVA - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 20149462601 - WP IIBB - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
-      <c r="J9" s="4">
+      <c r="M9" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="N9" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1272,28 +1366,36 @@
       <c r="E10" s="1">
         <v>44958</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\BUSTOS GUSTAVO\IVA\2023\2\</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\BUSTOS GUSTAVO\IIBB\2023\2</v>
+      </c>
+      <c r="J10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 20168291281 - WP IVA - 202302 - BUSTOS GUSTAVO</v>
       </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 20168291281 - WP IIBB - 202302 - BUSTOS GUSTAVO</v>
       </c>
-      <c r="J10" s="4">
+      <c r="M10" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="N10" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1311,28 +1413,36 @@
       <c r="E11" s="1">
         <v>44958</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\PEREYRA ESTEBAN\IVA\2023\2\</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\PEREYRA ESTEBAN\IIBB\2023\2</v>
+      </c>
+      <c r="J11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 20172521771 - WP IVA - 202302 - PEREYRA ESTEBAN</v>
       </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 20172521771 - WP IIBB - 202302 - PEREYRA ESTEBAN</v>
       </c>
-      <c r="J11" s="4">
+      <c r="M11" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="N11" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1349,28 +1459,36 @@
       <c r="E12" s="1">
         <v>44958</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\MOLAS PATRICIA\IVA\2023\2\</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\MOLAS PATRICIA\IIBB\2023\2</v>
+      </c>
+      <c r="J12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 27128520851 - WP IVA - 202302 - MOLAS PATRICIA</v>
       </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 27128520851 - WP IIBB - 202302 - MOLAS PATRICIA</v>
       </c>
-      <c r="J12" s="4">
+      <c r="M12" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="N12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1387,28 +1505,36 @@
       <c r="E13" s="1">
         <v>44958</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\GESAL SA\IVA\2023\2\</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\GESAL SA\IIBB\2023\2</v>
+      </c>
+      <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 30710404131 - WP IVA - 202302 - GESAL SA</v>
       </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 30710404131 - WP IIBB - 202302 - GESAL SA</v>
       </c>
-      <c r="J13" s="4">
+      <c r="M13" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="N13" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1425,28 +1551,36 @@
       <c r="E14" s="1">
         <v>44958</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\CONDOMINIO SAN LORENZO\IVA\2023\2\</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CONDOMINIO SAN LORENZO\IIBB\2023\2</v>
+      </c>
+      <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>1 - 30717059111 - WP IVA - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>1 - 30717059111 - WP IIBB - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
-      <c r="J14" s="4">
+      <c r="M14" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="N14" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1463,28 +1597,36 @@
       <c r="E15" s="1">
         <v>44958</v>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\RIERA HECTOR M\IVA\2023\2\</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\RIERA HECTOR M\IIBB\2023\2</v>
+      </c>
+      <c r="J15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>2 - 20121182832 - WP IVA - 202302 - RIERA HECTOR M</v>
       </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>2 - 20121182832 - WP IIBB - 202302 - RIERA HECTOR M</v>
       </c>
-      <c r="J15" s="4">
+      <c r="M15" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="N15" s="4" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1501,28 +1643,36 @@
       <c r="E16" s="1">
         <v>44958</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\BUSTOS MARTIN\IVA\2023\2\</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\BUSTOS MARTIN\IIBB\2023\2</v>
+      </c>
+      <c r="J16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>2 - 20147130202 - WP IVA - 202302 - BUSTOS MARTIN</v>
       </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>2 - 20147130202 - WP IIBB - 202302 - BUSTOS MARTIN</v>
       </c>
-      <c r="J16" s="4">
+      <c r="M16" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="N16" s="4" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1539,28 +1689,36 @@
       <c r="E17" s="1">
         <v>44958</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\INSAURRALDE CARLOS\IVA\2023\2\</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\INSAURRALDE CARLOS\IIBB\2023\2</v>
+      </c>
+      <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>2 - 20174123072 - WP IVA - 202302 - INSAURRALDE CARLOS</v>
       </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>2 - 20174123072 - WP IIBB - 202302 - INSAURRALDE CARLOS</v>
       </c>
-      <c r="J17" s="4">
+      <c r="M17" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="N17" s="4" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1578,28 +1736,36 @@
       <c r="E18" s="1">
         <v>44958</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>\FERNANDEZ SOSA LILIANA\IVA\2023\2\</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERNANDEZ SOSA LILIANA\IIBB\2023\2</v>
+      </c>
+      <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>2 - 27182653972 - WP IVA - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>2 - 27182653972 - WP IIBB - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
-      <c r="J18" s="4">
+      <c r="M18" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="N18" s="4" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1619,28 +1785,36 @@
       <c r="F19" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\SZYCHOWSKI KAREN\IVA\2022\7</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SZYCHOWSKI KAREN\IIBB\2022\7</v>
+      </c>
+      <c r="J19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Julio 2022</v>
       </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>2 - 27348916942 - WP IVA - 202207 - SZYCHOWSKI KAREN</v>
       </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>2 - 27348916942 - WP IIBB - 202207 - SZYCHOWSKI KAREN</v>
       </c>
-      <c r="J19" s="4">
+      <c r="M19" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="N19" s="4" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1657,28 +1831,36 @@
       <c r="E20" s="1">
         <v>44958</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="H20" s="4" t="str">
+        <f t="shared" ref="H20:H21" si="10">G20&amp;"\"&amp;B20&amp;"\IVA\"&amp;YEAR(E20)&amp;"\"&amp;MONTH(E20)&amp;"\"</f>
+        <v>\POSADAS FIDUCIARIA SA\IVA\2023\2\</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\POSADAS FIDUCIARIA SA\IIBB\2023\2</v>
+      </c>
+      <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>2 - 30708370122 - WP IVA - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>2 - 30708370122 - WP IIBB - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
-      <c r="J20" s="4">
+      <c r="M20" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="N20" s="4" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1695,28 +1877,36 @@
       <c r="E21" s="1">
         <v>44958</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>\SEMILLA ELVIES\IVA\2023\2\</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SEMILLA ELVIES\IIBB\2023\2</v>
+      </c>
+      <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>3 - 27068286323 - WP IVA - 202302 - SEMILLA ELVIES</v>
       </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>3 - 27068286323 - WP IIBB - 202302 - SEMILLA ELVIES</v>
       </c>
-      <c r="J21" s="4">
+      <c r="M21" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K21" s="4" t="str">
+      <c r="N21" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1736,28 +1926,36 @@
       <c r="F22" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\PENSA MARIA EUGENIA\IVA\2022\7</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\PENSA MARIA EUGENIA\IIBB\2022\7</v>
+      </c>
+      <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Julio 2022</v>
       </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>3 - 27354872183 - WP IVA - 202207 - PENSA MARIA EUGENIA</v>
       </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>3 - 27354872183 - WP IIBB - 202207 - PENSA MARIA EUGENIA</v>
       </c>
-      <c r="J22" s="4">
+      <c r="M22" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="N22" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1774,28 +1972,36 @@
       <c r="E23" s="1">
         <v>44958</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="H23" s="4" t="str">
+        <f t="shared" ref="H23:H51" si="11">G23&amp;"\"&amp;B23&amp;"\IVA\"&amp;YEAR(E23)&amp;"\"&amp;MONTH(E23)&amp;"\"</f>
+        <v>\CUCYTI SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CUCYTI SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>3 - 30672355393 - WP IVA - 202302 - CUCYTI SRL</v>
       </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>3 - 30672355393 - WP IIBB - 202302 - CUCYTI SRL</v>
       </c>
-      <c r="J23" s="4">
+      <c r="M23" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="N23" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1812,28 +2018,36 @@
       <c r="E24" s="1">
         <v>44958</v>
       </c>
-      <c r="G24" s="3" t="str">
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\CARLOS ABELARDO SESMERO SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CARLOS ABELARDO SESMERO SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H24" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>3 - 30707912223 - WP IVA - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>3 - 30707912223 - WP IIBB - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
-      <c r="J24" s="4">
+      <c r="M24" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="N24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1850,28 +2064,36 @@
       <c r="E25" s="1">
         <v>44958</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\TRANS. MISIONES SA\IVA\2023\2\</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\TRANS. MISIONES SA\IIBB\2023\2</v>
+      </c>
+      <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H25" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>3 - 30715577743 - WP IVA - 202302 - TRANS. MISIONES SA</v>
       </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>3 - 30715577743 - WP IIBB - 202302 - TRANS. MISIONES SA</v>
       </c>
-      <c r="J25" s="4">
+      <c r="M25" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="N25" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1888,28 +2110,36 @@
       <c r="E26" s="1">
         <v>44958</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\DON LALO SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\DON LALO SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H26" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>3 - 30717537153 - WP IVA - 202302 - DON LALO SRL</v>
       </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>3 - 30717537153 - WP IIBB - 202302 - DON LALO SRL</v>
       </c>
-      <c r="J26" s="4">
+      <c r="M26" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="N26" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1926,28 +2156,36 @@
       <c r="E27" s="1">
         <v>44958</v>
       </c>
-      <c r="G27" s="3" t="str">
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\FERNANDEZ SOSA RODOLFO\IVA\2023\2\</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERNANDEZ SOSA RODOLFO\IIBB\2023\2</v>
+      </c>
+      <c r="J27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H27" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 20168291834 - WP IVA - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 20168291834 - WP IIBB - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
-      <c r="J27" s="4">
+      <c r="M27" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="N27" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1964,28 +2202,36 @@
       <c r="E28" s="1">
         <v>44958</v>
       </c>
-      <c r="G28" s="3" t="str">
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\SESMERO MARIA GABRIELA\IVA\2023\2\</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SESMERO MARIA GABRIELA\IIBB\2023\2</v>
+      </c>
+      <c r="J28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H28" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 23149462074 - WP IVA - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 23149462074 - WP IIBB - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
-      <c r="J28" s="4">
+      <c r="M28" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="N28" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2002,28 +2248,36 @@
       <c r="E29" s="1">
         <v>44958</v>
       </c>
-      <c r="G29" s="3" t="str">
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\FERREYRA CARMEN VICTORIA\IVA\2023\2\</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERREYRA CARMEN VICTORIA\IIBB\2023\2</v>
+      </c>
+      <c r="J29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H29" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 23342751644 - WP IVA - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 23342751644 - WP IIBB - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
-      <c r="J29" s="4">
+      <c r="M29" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K29" s="4" t="str">
+      <c r="N29" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2040,28 +2294,36 @@
       <c r="E30" s="1">
         <v>44958</v>
       </c>
-      <c r="G30" s="3" t="str">
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\SCOTO LUCILA\IVA\2023\2\</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SCOTO LUCILA\IIBB\2023\2</v>
+      </c>
+      <c r="J30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H30" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 23351897074 - WP IVA - 202302 - SCOTO LUCILA</v>
       </c>
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L30" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 23351897074 - WP IIBB - 202302 - SCOTO LUCILA</v>
       </c>
-      <c r="J30" s="4">
+      <c r="M30" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K30" s="4" t="str">
+      <c r="N30" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2078,28 +2340,36 @@
       <c r="E31" s="1">
         <v>44958</v>
       </c>
-      <c r="G31" s="3" t="str">
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\TUFRO MALENA\IVA\2023\2\</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\TUFRO MALENA\IIBB\2023\2</v>
+      </c>
+      <c r="J31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H31" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 27236873744 - WP IVA - 202302 - TUFRO MALENA</v>
       </c>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 27236873744 - WP IIBB - 202302 - TUFRO MALENA</v>
       </c>
-      <c r="J31" s="4">
+      <c r="M31" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K31" s="4" t="str">
+      <c r="N31" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2116,28 +2386,36 @@
       <c r="E32" s="1">
         <v>44958</v>
       </c>
-      <c r="G32" s="3" t="str">
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\DVC SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\DVC SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H32" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 30709431834 - WP IVA - 202302 - DVC SRL</v>
       </c>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 30709431834 - WP IIBB - 202302 - DVC SRL</v>
       </c>
-      <c r="J32" s="4">
+      <c r="M32" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="K32" s="4" t="str">
+      <c r="N32" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2154,28 +2432,36 @@
       <c r="E33" s="1">
         <v>44958</v>
       </c>
-      <c r="G33" s="3" t="str">
+      <c r="H33" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\VECINAS SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\VECINAS SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="H33" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>4 - 30715795864 - WP IVA - 202302 - VECINAS SRL</v>
       </c>
-      <c r="I33" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4 - 30715795864 - WP IIBB - 202302 - VECINAS SRL</v>
       </c>
-      <c r="J33" s="4">
+      <c r="M33" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="K33" s="4" t="str">
+      <c r="N33" s="4" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2193,28 +2479,36 @@
       <c r="E34" s="1">
         <v>44958</v>
       </c>
-      <c r="G34" s="3" t="str">
-        <f t="shared" ref="G34:G65" si="6">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H34" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\SZYCHOWSKI RICARDO\IVA\2023\2\</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SZYCHOWSKI RICARDO\IIBB\2023\2</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" ref="J34:J65" si="12">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>5 - 20074827455 - WP IVA - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
-      <c r="I34" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5 - 20074827455 - WP IIBB - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
-      <c r="J34" s="4">
-        <f t="shared" ref="J34:J65" si="7">ROW(A34)</f>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:M65" si="13">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="K34" s="4" t="str">
-        <f t="shared" ref="K34:K65" si="8">RIGHT(D34,1)</f>
+      <c r="N34" s="4" t="str">
+        <f t="shared" ref="N34:N65" si="14">RIGHT(D34,1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2231,28 +2525,36 @@
       <c r="E35" s="1">
         <v>44958</v>
       </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H35" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H35" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\FERREYRA MARCELO\IVA\2023\2\</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERREYRA MARCELO\IIBB\2023\2</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>5 - 20170394845 - WP IVA - 202302 - FERREYRA MARCELO</v>
       </c>
-      <c r="I35" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5 - 20170394845 - WP IIBB - 202302 - FERREYRA MARCELO</v>
       </c>
-      <c r="J35" s="4">
-        <f t="shared" si="7"/>
+      <c r="M35" s="4">
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="K35" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N35" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2270,28 +2572,36 @@
       <c r="E36" s="1">
         <v>44958</v>
       </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H36" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H36" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\CANTELI GRACIELA\IVA\2023\2\</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CANTELI GRACIELA\IIBB\2023\2</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>5 - 27148268105 - WP IVA - 202302 - CANTELI GRACIELA</v>
       </c>
-      <c r="I36" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L36" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5 - 27148268105 - WP IIBB - 202302 - CANTELI GRACIELA</v>
       </c>
-      <c r="J36" s="4">
-        <f t="shared" si="7"/>
+      <c r="M36" s="4">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="K36" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N36" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2309,28 +2619,36 @@
       <c r="E37" s="1">
         <v>44958</v>
       </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H37" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H37" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\CORONAS ALINE\IVA\2023\2\</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CORONAS ALINE\IIBB\2023\2</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>5 - 27171709925 - WP IVA - 202302 - CORONAS ALINE</v>
       </c>
-      <c r="I37" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L37" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5 - 27171709925 - WP IIBB - 202302 - CORONAS ALINE</v>
       </c>
-      <c r="J37" s="4">
-        <f t="shared" si="7"/>
+      <c r="M37" s="4">
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="K37" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N37" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2347,28 +2665,36 @@
       <c r="E38" s="1">
         <v>44958</v>
       </c>
-      <c r="G38" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H38" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H38" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\ASOC. SALUD MNES\IVA\2023\2\</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\ASOC. SALUD MNES\IIBB\2023\2</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>5 - 30708553715 - WP IVA - 202302 - ASOC. SALUD MNES</v>
       </c>
-      <c r="I38" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L38" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5 - 30708553715 - WP IIBB - 202302 - ASOC. SALUD MNES</v>
       </c>
-      <c r="J38" s="4">
-        <f t="shared" si="7"/>
+      <c r="M38" s="4">
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="K38" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N38" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2385,28 +2711,36 @@
       <c r="E39" s="1">
         <v>44958</v>
       </c>
-      <c r="G39" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H39" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H39" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\ENRIQUEZ RUBEN\IVA\2023\2\</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\ENRIQUEZ RUBEN\IIBB\2023\2</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 20149466356 - WP IVA - 202302 - ENRIQUEZ RUBEN</v>
       </c>
-      <c r="I39" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L39" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 20149466356 - WP IIBB - 202302 - ENRIQUEZ RUBEN</v>
       </c>
-      <c r="J39" s="4">
-        <f t="shared" si="7"/>
+      <c r="M39" s="4">
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="K39" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N39" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2423,28 +2757,36 @@
       <c r="E40" s="1">
         <v>44958</v>
       </c>
-      <c r="G40" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H40" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H40" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\BEITIA IÑAKI\IVA\2023\2\</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\BEITIA IÑAKI\IIBB\2023\2</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 20416948926 - WP IVA - 202302 - BEITIA IÑAKI</v>
       </c>
-      <c r="I40" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L40" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 20416948926 - WP IIBB - 202302 - BEITIA IÑAKI</v>
       </c>
-      <c r="J40" s="4">
-        <f t="shared" si="7"/>
+      <c r="M40" s="4">
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="K40" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N40" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2461,28 +2803,36 @@
       <c r="E41" s="1">
         <v>44958</v>
       </c>
-      <c r="G41" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H41" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H41" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\LAZCOZ VIOLETA\IVA\2023\2\</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\LAZCOZ VIOLETA\IIBB\2023\2</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 27058846916 - WP IVA - 202302 - LAZCOZ VIOLETA</v>
       </c>
-      <c r="I41" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L41" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 27058846916 - WP IIBB - 202302 - LAZCOZ VIOLETA</v>
       </c>
-      <c r="J41" s="4">
-        <f t="shared" si="7"/>
+      <c r="M41" s="4">
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="K41" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N41" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2499,28 +2849,36 @@
       <c r="E42" s="1">
         <v>44958</v>
       </c>
-      <c r="G42" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H42" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H42" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\SZYCHOWSKI AMANDA \IVA\2023\2\</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SZYCHOWSKI AMANDA \IIBB\2023\2</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">6 - 27201178776 - WP IVA - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
-      <c r="I42" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L42" s="3" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">6 - 27201178776 - WP IIBB - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
-      <c r="J42" s="4">
-        <f t="shared" si="7"/>
+      <c r="M42" s="4">
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="K42" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N42" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2537,28 +2895,36 @@
       <c r="E43" s="1">
         <v>44958</v>
       </c>
-      <c r="G43" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H43" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H43" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\CARBALLO GRACIELA\IVA\2023\2\</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CARBALLO GRACIELA\IIBB\2023\2</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 27261827366 - WP IVA - 202302 - CARBALLO GRACIELA</v>
       </c>
-      <c r="I43" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L43" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 27261827366 - WP IIBB - 202302 - CARBALLO GRACIELA</v>
       </c>
-      <c r="J43" s="4">
-        <f t="shared" si="7"/>
+      <c r="M43" s="4">
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="K43" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N43" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2575,28 +2941,36 @@
       <c r="E44" s="1">
         <v>44958</v>
       </c>
-      <c r="G44" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H44" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H44" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\PREST. SANAT. SA\IVA\2023\2\</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\PREST. SANAT. SA\IIBB\2023\2</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 30687910636 - WP IVA - 202302 - PREST. SANAT. SA</v>
       </c>
-      <c r="I44" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L44" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 30687910636 - WP IIBB - 202302 - PREST. SANAT. SA</v>
       </c>
-      <c r="J44" s="4">
-        <f t="shared" si="7"/>
+      <c r="M44" s="4">
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="K44" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N44" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2613,28 +2987,36 @@
       <c r="E45" s="1">
         <v>44958</v>
       </c>
-      <c r="G45" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H45" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H45" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\CONSULTORIO SAN MARTIN\IVA\2023\2\</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CONSULTORIO SAN MARTIN\IIBB\2023\2</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 30715347926 - WP IVA - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
-      <c r="I45" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L45" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 30715347926 - WP IIBB - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
-      <c r="J45" s="4">
-        <f t="shared" si="7"/>
+      <c r="M45" s="4">
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="K45" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N45" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2651,28 +3033,36 @@
       <c r="E46" s="1">
         <v>44958</v>
       </c>
-      <c r="G46" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H46" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H46" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\PENSA PROPIEDADES\IVA\2023\2\</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\PENSA PROPIEDADES\IIBB\2023\2</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>6 - 30716503816 - WP IVA - 202302 - PENSA PROPIEDADES</v>
       </c>
-      <c r="I46" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L46" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>6 - 30716503816 - WP IIBB - 202302 - PENSA PROPIEDADES</v>
       </c>
-      <c r="J46" s="4">
-        <f t="shared" si="7"/>
+      <c r="M46" s="4">
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="K46" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N46" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2690,28 +3080,36 @@
       <c r="E47" s="1">
         <v>44958</v>
       </c>
-      <c r="G47" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H47" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H47" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\PENSA ANIBAL\IVA\2023\2\</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\PENSA ANIBAL\IIBB\2023\2</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 20077065637 - WP IVA - 202302 - PENSA ANIBAL</v>
       </c>
-      <c r="I47" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L47" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 20077065637 - WP IIBB - 202302 - PENSA ANIBAL</v>
       </c>
-      <c r="J47" s="4">
-        <f t="shared" si="7"/>
+      <c r="M47" s="4">
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="K47" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N47" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2729,28 +3127,36 @@
       <c r="E48" s="1">
         <v>44958</v>
       </c>
-      <c r="G48" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H48" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H48" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\TABBIA ENRIQUE\IVA\2023\2\</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\TABBIA ENRIQUE\IIBB\2023\2</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 20130056637 - WP IVA - 202302 - TABBIA ENRIQUE</v>
       </c>
-      <c r="I48" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L48" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 20130056637 - WP IIBB - 202302 - TABBIA ENRIQUE</v>
       </c>
-      <c r="J48" s="4">
-        <f t="shared" si="7"/>
+      <c r="M48" s="4">
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
-      <c r="K48" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N48" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2767,28 +3173,36 @@
       <c r="E49" s="1">
         <v>44958</v>
       </c>
-      <c r="G49" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H49" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H49" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\HOPE HUGO\IVA\2023\2\</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\HOPE HUGO\IIBB\2023\2</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 20170395167 - WP IVA - 202302 - HOPE HUGO</v>
       </c>
-      <c r="I49" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L49" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 20170395167 - WP IIBB - 202302 - HOPE HUGO</v>
       </c>
-      <c r="J49" s="4">
-        <f t="shared" si="7"/>
+      <c r="M49" s="4">
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="K49" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N49" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2806,28 +3220,36 @@
       <c r="E50" s="1">
         <v>44958</v>
       </c>
-      <c r="G50" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H50" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H50" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\VARENIZA NESTOR LEONEL\IVA\2023\2\</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\VARENIZA NESTOR LEONEL\IIBB\2023\2</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 20301650087 - WP IVA - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
-      <c r="I50" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L50" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 20301650087 - WP IIBB - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
-      <c r="J50" s="4">
-        <f t="shared" si="7"/>
+      <c r="M50" s="4">
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="K50" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N50" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2844,28 +3266,36 @@
       <c r="E51" s="1">
         <v>44958</v>
       </c>
-      <c r="G51" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H51" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H51" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>\FERREYRA ANDRES\IVA\2023\2\</v>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERREYRA ANDRES\IIBB\2023\2</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K51" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 20327623967 - WP IVA - 202302 - FERREYRA ANDRES</v>
       </c>
-      <c r="I51" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L51" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 20327623967 - WP IIBB - 202302 - FERREYRA ANDRES</v>
       </c>
-      <c r="J51" s="4">
-        <f t="shared" si="7"/>
+      <c r="M51" s="4">
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="K51" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N51" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2885,28 +3315,36 @@
       <c r="F52" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="H52" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\PENSA LUCIANO\IVA\2022\7</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\PENSA LUCIANO\IIBB\2022\7</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f t="shared" si="12"/>
         <v>Julio 2022</v>
       </c>
-      <c r="H52" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 20334250327 - WP IVA - 202207 - PENSA LUCIANO</v>
       </c>
-      <c r="I52" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L52" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 20334250327 - WP IIBB - 202207 - PENSA LUCIANO</v>
       </c>
-      <c r="J52" s="4">
-        <f t="shared" si="7"/>
+      <c r="M52" s="4">
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="K52" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N52" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2923,28 +3361,36 @@
       <c r="E53" s="1">
         <v>44958</v>
       </c>
-      <c r="G53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H53" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H53" s="4" t="str">
+        <f t="shared" ref="H53:H75" si="15">G53&amp;"\"&amp;B53&amp;"\IVA\"&amp;YEAR(E53)&amp;"\"&amp;MONTH(E53)&amp;"\"</f>
+        <v>\SCOTTO OLGA MARIA\IVA\2023\2\</v>
+      </c>
+      <c r="I53" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SCOTTO OLGA MARIA\IIBB\2023\2</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 27109797257 - WP IVA - 202302 - SCOTTO OLGA MARIA</v>
       </c>
-      <c r="I53" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L53" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 27109797257 - WP IIBB - 202302 - SCOTTO OLGA MARIA</v>
       </c>
-      <c r="J53" s="4">
-        <f t="shared" si="7"/>
+      <c r="M53" s="4">
+        <f t="shared" si="13"/>
         <v>53</v>
       </c>
-      <c r="K53" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N53" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2961,28 +3407,36 @@
       <c r="E54" s="1">
         <v>44958</v>
       </c>
-      <c r="G54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H54" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H54" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\ROKO EUGENIA\IVA\2023\2\</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\ROKO EUGENIA\IIBB\2023\2</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 27217236547 - WP IVA - 202302 - ROKO EUGENIA</v>
       </c>
-      <c r="I54" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L54" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 27217236547 - WP IIBB - 202302 - ROKO EUGENIA</v>
       </c>
-      <c r="J54" s="4">
-        <f t="shared" si="7"/>
+      <c r="M54" s="4">
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="K54" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N54" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2999,28 +3453,36 @@
       <c r="E55" s="1">
         <v>44958</v>
       </c>
-      <c r="G55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H55" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H55" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\BUSTOS-HOPE S.H\IVA\2023\2\</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\BUSTOS-HOPE S.H\IIBB\2023\2</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 30650940667 - WP IVA - 202302 - BUSTOS-HOPE S.H</v>
       </c>
-      <c r="I55" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L55" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 30650940667 - WP IIBB - 202302 - BUSTOS-HOPE S.H</v>
       </c>
-      <c r="J55" s="4">
-        <f t="shared" si="7"/>
+      <c r="M55" s="4">
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="K55" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N55" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3037,28 +3499,36 @@
       <c r="E56" s="1">
         <v>44958</v>
       </c>
-      <c r="G56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H56" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H56" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\CEBAC\IVA\2023\2\</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CEBAC\IIBB\2023\2</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 30672372697 - WP IVA - 202302 - CEBAC</v>
       </c>
-      <c r="I56" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L56" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 30672372697 - WP IIBB - 202302 - CEBAC</v>
       </c>
-      <c r="J56" s="4">
-        <f t="shared" si="7"/>
+      <c r="M56" s="4">
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="K56" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N56" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3075,28 +3545,36 @@
       <c r="E57" s="1">
         <v>44958</v>
       </c>
-      <c r="G57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H57" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H57" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\AITA S.A.\IVA\2023\2\</v>
+      </c>
+      <c r="I57" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\AITA S.A.\IIBB\2023\2</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 30709419567 - WP IVA - 202302 - AITA S.A.</v>
       </c>
-      <c r="I57" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L57" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 30709419567 - WP IIBB - 202302 - AITA S.A.</v>
       </c>
-      <c r="J57" s="4">
-        <f t="shared" si="7"/>
+      <c r="M57" s="4">
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="K57" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N57" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3113,28 +3591,36 @@
       <c r="E58" s="1">
         <v>44958</v>
       </c>
-      <c r="G58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H58" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H58" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\COND. LARZABAL\IVA\2023\2\</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\COND. LARZABAL\IIBB\2023\2</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>7 - 30712026797 - WP IVA - 202302 - COND. LARZABAL</v>
       </c>
-      <c r="I58" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L58" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>7 - 30712026797 - WP IIBB - 202302 - COND. LARZABAL</v>
       </c>
-      <c r="J58" s="4">
-        <f t="shared" si="7"/>
+      <c r="M58" s="4">
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="K58" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N58" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3152,28 +3638,36 @@
       <c r="E59" s="1">
         <v>44958</v>
       </c>
-      <c r="G59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H59" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H59" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\CASTRO OLIVERA CARLOS\IVA\2023\2\</v>
+      </c>
+      <c r="I59" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CASTRO OLIVERA CARLOS\IIBB\2023\2</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 20082750488 - WP IVA - 202302 - CASTRO OLIVERA CARLOS</v>
       </c>
-      <c r="I59" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L59" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 20082750488 - WP IIBB - 202302 - CASTRO OLIVERA CARLOS</v>
       </c>
-      <c r="J59" s="4">
-        <f t="shared" si="7"/>
+      <c r="M59" s="4">
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
-      <c r="K59" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N59" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3191,28 +3685,36 @@
       <c r="E60" s="1">
         <v>44958</v>
       </c>
-      <c r="G60" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H60" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H60" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\URRUTIA DIEGO\IVA\2023\2\</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\URRUTIA DIEGO\IIBB\2023\2</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 20230966738 - WP IVA - 202302 - URRUTIA DIEGO</v>
       </c>
-      <c r="I60" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L60" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 20230966738 - WP IIBB - 202302 - URRUTIA DIEGO</v>
       </c>
-      <c r="J60" s="4">
-        <f t="shared" si="7"/>
+      <c r="M60" s="4">
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="K60" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N60" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3229,28 +3731,36 @@
       <c r="E61" s="1">
         <v>44958</v>
       </c>
-      <c r="G61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H61" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H61" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\CASTRO OLIVERA GONZALO\IVA\2023\2\</v>
+      </c>
+      <c r="I61" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\CASTRO OLIVERA GONZALO\IIBB\2023\2</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 20303980378 - WP IVA - 202302 - CASTRO OLIVERA GONZALO</v>
       </c>
-      <c r="I61" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L61" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 20303980378 - WP IIBB - 202302 - CASTRO OLIVERA GONZALO</v>
       </c>
-      <c r="J61" s="4">
-        <f t="shared" si="7"/>
+      <c r="M61" s="4">
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
-      <c r="K61" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N61" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3267,28 +3777,36 @@
       <c r="E62" s="1">
         <v>44958</v>
       </c>
-      <c r="G62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H62" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H62" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\MARTIN ADRIANA\IVA\2023\2\</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\MARTIN ADRIANA\IIBB\2023\2</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 27163651918 - WP IVA - 202302 - MARTIN ADRIANA</v>
       </c>
-      <c r="I62" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L62" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 27163651918 - WP IIBB - 202302 - MARTIN ADRIANA</v>
       </c>
-      <c r="J62" s="4">
-        <f t="shared" si="7"/>
+      <c r="M62" s="4">
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
-      <c r="K62" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N62" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3305,28 +3823,36 @@
       <c r="E63" s="1">
         <v>44958</v>
       </c>
-      <c r="G63" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H63" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H63" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\SPAGNOLI SUSANA\IVA\2023\2\</v>
+      </c>
+      <c r="I63" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\SPAGNOLI SUSANA\IIBB\2023\2</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 27201932268 - WP IVA - 202302 - SPAGNOLI SUSANA</v>
       </c>
-      <c r="I63" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L63" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 27201932268 - WP IIBB - 202302 - SPAGNOLI SUSANA</v>
       </c>
-      <c r="J63" s="4">
-        <f t="shared" si="7"/>
+      <c r="M63" s="4">
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
-      <c r="K63" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N63" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3343,28 +3869,36 @@
       <c r="E64" s="1">
         <v>44958</v>
       </c>
-      <c r="G64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H64" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H64" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\FORESTAL SA\IVA\2023\2\</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FORESTAL SA\IIBB\2023\2</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 30701299538 - WP IVA - 202302 - FORESTAL SA</v>
       </c>
-      <c r="I64" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L64" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 30701299538 - WP IIBB - 202302 - FORESTAL SA</v>
       </c>
-      <c r="J64" s="4">
-        <f t="shared" si="7"/>
+      <c r="M64" s="4">
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="K64" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N64" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3381,30 +3915,38 @@
       <c r="E65" s="1">
         <v>44958</v>
       </c>
-      <c r="G65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H65" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H65" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\FIDEIC. PDAS INMOB\IVA\2023\2\</v>
+      </c>
+      <c r="I65" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FIDEIC. PDAS INMOB\IIBB\2023\2</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K65" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>8 - 30708626348 - WP IVA - 202302 - FIDEIC. PDAS INMOB</v>
       </c>
-      <c r="I65" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L65" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>8 - 30708626348 - WP IIBB - 202302 - FIDEIC. PDAS INMOB</v>
       </c>
-      <c r="J65" s="4">
-        <f t="shared" si="7"/>
+      <c r="M65" s="4">
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
-      <c r="K65" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="N65" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="9">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="16">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -3419,30 +3961,38 @@
       <c r="E66" s="1">
         <v>44958</v>
       </c>
-      <c r="G66" s="3" t="str">
-        <f t="shared" ref="G66:G75" si="10">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H66" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="H66" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\HOPE RICARDO\IVA\2023\2\</v>
+      </c>
+      <c r="I66" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\HOPE RICARDO\IIBB\2023\2</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" ref="J66:J75" si="17">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K66" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>9 - 20149466739 - WP IVA - 202302 - HOPE RICARDO</v>
       </c>
-      <c r="I66" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="L66" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>9 - 20149466739 - WP IIBB - 202302 - HOPE RICARDO</v>
       </c>
-      <c r="J66" s="4">
-        <f t="shared" ref="J66:J75" si="11">ROW(A66)</f>
+      <c r="M66" s="4">
+        <f t="shared" ref="M66:M75" si="18">ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="K66" s="4" t="str">
-        <f t="shared" ref="K66:K75" si="12">RIGHT(D66,1)</f>
+      <c r="N66" s="4" t="str">
+        <f t="shared" ref="N66:N75" si="19">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -3457,30 +4007,38 @@
       <c r="E67" s="1">
         <v>44958</v>
       </c>
-      <c r="G67" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H67" s="3" t="str">
-        <f t="shared" ref="H67:H75" si="13">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IVA - ",TEXT(G67,"AAAAMM")," - ",B67)</f>
+      <c r="H67" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\BEITIA CRISPIN\IVA\2023\2\</v>
+      </c>
+      <c r="I67" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\BEITIA CRISPIN\IIBB\2023\2</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K67" s="3" t="str">
+        <f t="shared" ref="K67:K75" si="20">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IVA - ",TEXT(J67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - WP IVA - 202302 - BEITIA CRISPIN</v>
       </c>
-      <c r="I67" s="3" t="str">
-        <f t="shared" ref="I67:I75" si="14">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IIBB - ",TEXT(G67,"AAAAMM")," - ",B67)</f>
+      <c r="L67" s="3" t="str">
+        <f t="shared" ref="L67:L75" si="21">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IIBB - ",TEXT(J67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - WP IIBB - 202302 - BEITIA CRISPIN</v>
       </c>
-      <c r="J67" s="4">
-        <f t="shared" si="11"/>
+      <c r="M67" s="4">
+        <f t="shared" si="18"/>
         <v>67</v>
       </c>
-      <c r="K67" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N67" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -3495,30 +4053,38 @@
       <c r="E68" s="1">
         <v>44958</v>
       </c>
-      <c r="G68" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H68" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H68" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\BUSTOS GONZALO\IVA\2023\2\</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <f t="shared" ref="I68:I75" si="22">G68&amp;"\"&amp;B68&amp;"\IIBB\"&amp;YEAR(E68)&amp;"\"&amp;MONTH(E68)</f>
+        <v>\BUSTOS GONZALO\IIBB\2023\2</v>
+      </c>
+      <c r="J68" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K68" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 20246008109 - WP IVA - 202302 - BUSTOS GONZALO</v>
       </c>
-      <c r="I68" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L68" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 20246008109 - WP IIBB - 202302 - BUSTOS GONZALO</v>
       </c>
-      <c r="J68" s="4">
-        <f t="shared" si="11"/>
+      <c r="M68" s="4">
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
-      <c r="K68" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N68" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -3534,30 +4100,38 @@
       <c r="E69" s="1">
         <v>44958</v>
       </c>
-      <c r="G69" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H69" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H69" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\LINDSTROM PLINIO\IVA\2023\2\</v>
+      </c>
+      <c r="I69" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\LINDSTROM PLINIO\IIBB\2023\2</v>
+      </c>
+      <c r="J69" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K69" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 23120538209 - WP IVA - 202302 - LINDSTROM PLINIO</v>
       </c>
-      <c r="I69" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L69" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 23120538209 - WP IIBB - 202302 - LINDSTROM PLINIO</v>
       </c>
-      <c r="J69" s="4">
-        <f t="shared" si="11"/>
+      <c r="M69" s="4">
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
-      <c r="K69" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N69" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -3572,30 +4146,38 @@
       <c r="E70" s="1">
         <v>44958</v>
       </c>
-      <c r="G70" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H70" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H70" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\SOTO GERONIMO\IVA\2023\2\</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\SOTO GERONIMO\IIBB\2023\2</v>
+      </c>
+      <c r="J70" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 23242946669 - WP IVA - 202302 - SOTO GERONIMO</v>
       </c>
-      <c r="I70" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L70" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 23242946669 - WP IIBB - 202302 - SOTO GERONIMO</v>
       </c>
-      <c r="J70" s="4">
-        <f t="shared" si="11"/>
+      <c r="M70" s="4">
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
-      <c r="K70" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N70" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -3610,30 +4192,38 @@
       <c r="E71" s="1">
         <v>44958</v>
       </c>
-      <c r="G71" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H71" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H71" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\LIONETO CAROLINA\IVA\2023\2\</v>
+      </c>
+      <c r="I71" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\LIONETO CAROLINA\IIBB\2023\2</v>
+      </c>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K71" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 27173878309 - WP IVA - 202302 - LIONETO CAROLINA</v>
       </c>
-      <c r="I71" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L71" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 27173878309 - WP IIBB - 202302 - LIONETO CAROLINA</v>
       </c>
-      <c r="J71" s="4">
-        <f t="shared" si="11"/>
+      <c r="M71" s="4">
+        <f t="shared" si="18"/>
         <v>71</v>
       </c>
-      <c r="K71" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N71" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -3648,30 +4238,38 @@
       <c r="E72" s="1">
         <v>44958</v>
       </c>
-      <c r="G72" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H72" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H72" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\COND. INVERNADA\IVA\2023\2\</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\COND. INVERNADA\IIBB\2023\2</v>
+      </c>
+      <c r="J72" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K72" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 30715085409 - WP IVA - 202302 - COND. INVERNADA</v>
       </c>
-      <c r="I72" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L72" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 30715085409 - WP IIBB - 202302 - COND. INVERNADA</v>
       </c>
-      <c r="J72" s="4">
-        <f t="shared" si="11"/>
+      <c r="M72" s="4">
+        <f t="shared" si="18"/>
         <v>72</v>
       </c>
-      <c r="K72" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N72" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -3686,30 +4284,38 @@
       <c r="E73" s="1">
         <v>44958</v>
       </c>
-      <c r="G73" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H73" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H73" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\FAX SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I73" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\FAX SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J73" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K73" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 33653520439 - WP IVA - 202302 - FAX SRL</v>
       </c>
-      <c r="I73" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L73" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 33653520439 - WP IIBB - 202302 - FAX SRL</v>
       </c>
-      <c r="J73" s="4">
-        <f t="shared" si="11"/>
+      <c r="M73" s="4">
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
-      <c r="K73" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N73" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -3724,30 +4330,38 @@
       <c r="E74" s="1">
         <v>44958</v>
       </c>
-      <c r="G74" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H74" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H74" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\KM 0 SA\IVA\2023\2\</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\KM 0 SA\IIBB\2023\2</v>
+      </c>
+      <c r="J74" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K74" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 33712370829 - WP IVA - 202302 - KM 0 SA</v>
       </c>
-      <c r="I74" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L74" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 33712370829 - WP IIBB - 202302 - KM 0 SA</v>
       </c>
-      <c r="J74" s="4">
-        <f t="shared" si="11"/>
+      <c r="M74" s="4">
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
-      <c r="K74" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N74" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -3762,39 +4376,43 @@
       <c r="E75" s="1">
         <v>44958</v>
       </c>
-      <c r="G75" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="H75" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="H75" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>\INMUEBLES SRL\IVA\2023\2\</v>
+      </c>
+      <c r="I75" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\INMUEBLES SRL\IIBB\2023\2</v>
+      </c>
+      <c r="J75" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K75" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>9 - 33712529909 - WP IVA - 202302 - INMUEBLES SRL</v>
       </c>
-      <c r="I75" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="L75" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>9 - 33712529909 - WP IIBB - 202302 - INMUEBLES SRL</v>
       </c>
-      <c r="J75" s="4">
-        <f t="shared" si="11"/>
+      <c r="M75" s="4">
+        <f t="shared" si="18"/>
         <v>75</v>
       </c>
-      <c r="K75" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="N75" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:N75" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K75">
-      <sortCondition ref="A2:A75"/>
-      <sortCondition ref="D2:D75"/>
-    </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L75">
-    <sortCondition ref="K2:K75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O75">
+    <sortCondition ref="N2:N75"/>
     <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WP IVA IIBB.xlsx
+++ b/WP IVA IIBB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4732B314-86B7-4113-9AD1-D6D122542E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB34254-6AD4-4BA4-BB42-2310D9A5844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
   <si>
     <t>Nro</t>
   </si>
@@ -908,8 +908,8 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,12 +988,12 @@
         <v>147</v>
       </c>
       <c r="H2" s="4" t="str">
-        <f>G2&amp;"\"&amp;B2&amp;"\IVA\"&amp;YEAR(E2)&amp;"\"&amp;MONTH(E2)&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\IVA\2023\2\</v>
+        <f>G2&amp;"\"&amp;B2&amp;"\IVA\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\IVA\2023\02\</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>G2&amp;"\"&amp;B2&amp;"\IIBB\"&amp;YEAR(E2)&amp;"\"&amp;MONTH(E2)</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\IIBB\2023\2</v>
+        <f>G2&amp;"\"&amp;B2&amp;"\IIBB\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\IIBB\2023\02\</v>
       </c>
       <c r="J2" s="3" t="str">
         <f t="shared" ref="J2:J33" si="1">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
@@ -1038,23 +1038,23 @@
         <v>147</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f>G3&amp;"\"&amp;B3&amp;"\IVA\"&amp;YEAR(E3)&amp;"\"&amp;MONTH(E3)&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\IVA\2023\2\</v>
+        <f>G3&amp;"\"&amp;B3&amp;"\IVA\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\IVA\2023\02\</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3" si="4">G3&amp;"\"&amp;B3&amp;"\IIBB\"&amp;YEAR(E3)&amp;"\"&amp;MONTH(E3)</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\IIBB\2023\2</v>
+        <f>G3&amp;"\"&amp;B3&amp;"\IIBB\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\IIBB\2023\02\</v>
       </c>
       <c r="J3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f t="shared" ref="K3:K66" si="5">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IVA - ",TEXT(J3,"AAAAMM")," - ",B3)</f>
+        <f t="shared" ref="K3:K66" si="4">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IVA - ",TEXT(J3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - WP IVA - 202302 - VARENIZA ANGEL</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f t="shared" ref="L3:L66" si="6">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IIBB - ",TEXT(J3,"AAAAMM")," - ",B3)</f>
+        <f t="shared" ref="L3:L66" si="5">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ","WP IIBB - ",TEXT(J3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - WP IIBB - 202302 - VARENIZA ANGEL</v>
       </c>
       <c r="M3" s="4">
@@ -1087,11 +1087,11 @@
         <v>145</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H67" si="7">G4&amp;"\"&amp;B4&amp;"\IVA\"&amp;YEAR(E4)&amp;"\"&amp;MONTH(E4)</f>
+        <f t="shared" ref="H4:H67" si="6">G4&amp;"\"&amp;B4&amp;"\IVA\"&amp;YEAR(E4)&amp;"\"&amp;MONTH(E4)</f>
         <v>\BEITIA TOMAS\IVA\2022\7</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I67" si="8">G4&amp;"\"&amp;B4&amp;"\IIBB\"&amp;YEAR(E4)&amp;"\"&amp;MONTH(E4)</f>
+        <f t="shared" ref="I4:I67" si="7">G4&amp;"\"&amp;B4&amp;"\IIBB\"&amp;YEAR(E4)&amp;"\"&amp;MONTH(E4)</f>
         <v>\BEITIA TOMAS\IIBB\2022\7</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -1099,11 +1099,11 @@
         <v>Julio 2022</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0 - 20364074310 - WP IVA - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 20364074310 - WP IIBB - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="M4" s="4">
@@ -1136,23 +1136,23 @@
         <v>147</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f t="shared" ref="H5:H18" si="9">G5&amp;"\"&amp;B5&amp;"\IVA\"&amp;YEAR(E5)&amp;"\"&amp;MONTH(E5)&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\IVA\2023\2\</v>
+        <f t="shared" ref="H5:H18" si="8">G5&amp;"\"&amp;B5&amp;"\IVA\"&amp;YEAR(E5)&amp;"\"&amp;TEXT(MONTH(E5),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\IVA\2023\02\</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\IIBB\2023\2</v>
+        <f t="shared" ref="I5:I18" si="9">G5&amp;"\"&amp;B5&amp;"\IIBB\"&amp;YEAR(E5)&amp;"\"&amp;TEXT(MONTH(E5),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\IIBB\2023\02\</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0 - 27067089680 - WP IVA - 202302 - SESMERO TERESITA</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 27067089680 - WP IIBB - 202302 - SESMERO TERESITA</v>
       </c>
       <c r="M5" s="4">
@@ -1181,24 +1181,27 @@
       <c r="E6" s="1">
         <v>44958</v>
       </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
       <c r="H6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\IVA\2023\02\</v>
+      </c>
+      <c r="I6" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\URRUTIA MIRIAM\IVA\2023\2\</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\URRUTIA MIRIAM\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\IIBB\2023\02\</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0 - 27116976620 - WP IVA - 202302 - URRUTIA MIRIAM</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 27116976620 - WP IIBB - 202302 - URRUTIA MIRIAM</v>
       </c>
       <c r="M6" s="4">
@@ -1227,24 +1230,27 @@
       <c r="E7" s="1">
         <v>44958</v>
       </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
       <c r="H7" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\IVA\2023\02\</v>
+      </c>
+      <c r="I7" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\MEDINT SRL\IVA\2023\2\</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\MEDINT SRL\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\IIBB\2023\02\</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0 - 30657146850 - WP IVA - 202302 - MEDINT SRL</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30657146850 - WP IIBB - 202302 - MEDINT SRL</v>
       </c>
       <c r="M7" s="4">
@@ -1273,24 +1279,27 @@
       <c r="E8" s="1">
         <v>44958</v>
       </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
       <c r="H8" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\IVA\2023\02\</v>
+      </c>
+      <c r="I8" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\FERREYRA CARLOS ALFREDO\IVA\2023\2\</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FERREYRA CARLOS ALFREDO\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\IIBB\2023\02\</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 20133762761 - WP IVA - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 20133762761 - WP IIBB - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
       <c r="M8" s="4">
@@ -1319,24 +1328,27 @@
       <c r="E9" s="1">
         <v>44958</v>
       </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
       <c r="H9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\IVA\2023\02\</v>
+      </c>
+      <c r="I9" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\SZYCHOWSKI MARCELO\IVA\2023\2\</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SZYCHOWSKI MARCELO\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\IIBB\2023\02\</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 20149462601 - WP IVA - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 20149462601 - WP IIBB - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
       <c r="M9" s="4">
@@ -1366,24 +1378,27 @@
       <c r="E10" s="1">
         <v>44958</v>
       </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
       <c r="H10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\IVA\2023\02\</v>
+      </c>
+      <c r="I10" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\BUSTOS GUSTAVO\IVA\2023\2\</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\BUSTOS GUSTAVO\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\IIBB\2023\02\</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 20168291281 - WP IVA - 202302 - BUSTOS GUSTAVO</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 20168291281 - WP IIBB - 202302 - BUSTOS GUSTAVO</v>
       </c>
       <c r="M10" s="4">
@@ -1413,24 +1428,27 @@
       <c r="E11" s="1">
         <v>44958</v>
       </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
       <c r="H11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\IVA\2023\02\</v>
+      </c>
+      <c r="I11" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\PEREYRA ESTEBAN\IVA\2023\2\</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\PEREYRA ESTEBAN\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\IIBB\2023\02\</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 20172521771 - WP IVA - 202302 - PEREYRA ESTEBAN</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 20172521771 - WP IIBB - 202302 - PEREYRA ESTEBAN</v>
       </c>
       <c r="M11" s="4">
@@ -1459,24 +1477,27 @@
       <c r="E12" s="1">
         <v>44958</v>
       </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
       <c r="H12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\IVA\2023\02\</v>
+      </c>
+      <c r="I12" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\MOLAS PATRICIA\IVA\2023\2\</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\MOLAS PATRICIA\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\IIBB\2023\02\</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 27128520851 - WP IVA - 202302 - MOLAS PATRICIA</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 27128520851 - WP IIBB - 202302 - MOLAS PATRICIA</v>
       </c>
       <c r="M12" s="4">
@@ -1505,24 +1526,27 @@
       <c r="E13" s="1">
         <v>44958</v>
       </c>
+      <c r="G13" t="s">
+        <v>147</v>
+      </c>
       <c r="H13" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\IVA\2023\02\</v>
+      </c>
+      <c r="I13" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\GESAL SA\IVA\2023\2\</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\GESAL SA\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\IIBB\2023\02\</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 30710404131 - WP IVA - 202302 - GESAL SA</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 30710404131 - WP IIBB - 202302 - GESAL SA</v>
       </c>
       <c r="M13" s="4">
@@ -1551,24 +1575,27 @@
       <c r="E14" s="1">
         <v>44958</v>
       </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
       <c r="H14" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\IVA\2023\02\</v>
+      </c>
+      <c r="I14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\CONDOMINIO SAN LORENZO\IVA\2023\2\</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CONDOMINIO SAN LORENZO\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\IIBB\2023\02\</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1 - 30717059111 - WP IVA - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1 - 30717059111 - WP IIBB - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
       <c r="M14" s="4">
@@ -1597,24 +1624,27 @@
       <c r="E15" s="1">
         <v>44958</v>
       </c>
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
       <c r="H15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\IVA\2023\02\</v>
+      </c>
+      <c r="I15" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\RIERA HECTOR M\IVA\2023\2\</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\RIERA HECTOR M\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\IIBB\2023\02\</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2 - 20121182832 - WP IVA - 202302 - RIERA HECTOR M</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2 - 20121182832 - WP IIBB - 202302 - RIERA HECTOR M</v>
       </c>
       <c r="M15" s="4">
@@ -1643,24 +1673,27 @@
       <c r="E16" s="1">
         <v>44958</v>
       </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
       <c r="H16" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\IVA\2023\02\</v>
+      </c>
+      <c r="I16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\BUSTOS MARTIN\IVA\2023\2\</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\BUSTOS MARTIN\IIBB\2023\2</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\IIBB\2023\02\</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2 - 20147130202 - WP IVA - 202302 - BUSTOS MARTIN</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2 - 20147130202 - WP IIBB - 202302 - BUSTOS MARTIN</v>
       </c>
       <c r="M16" s="4">
@@ -1690,23 +1723,23 @@
         <v>44958</v>
       </c>
       <c r="H17" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\INSAURRALDE CARLOS\IVA\2023\02\</v>
+      </c>
+      <c r="I17" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\INSAURRALDE CARLOS\IVA\2023\2\</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\INSAURRALDE CARLOS\IIBB\2023\2</v>
+        <v>\INSAURRALDE CARLOS\IIBB\2023\02\</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2 - 20174123072 - WP IVA - 202302 - INSAURRALDE CARLOS</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2 - 20174123072 - WP IIBB - 202302 - INSAURRALDE CARLOS</v>
       </c>
       <c r="M17" s="4">
@@ -1737,23 +1770,23 @@
         <v>44958</v>
       </c>
       <c r="H18" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>\FERNANDEZ SOSA LILIANA\IVA\2023\02\</v>
+      </c>
+      <c r="I18" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>\FERNANDEZ SOSA LILIANA\IVA\2023\2\</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FERNANDEZ SOSA LILIANA\IIBB\2023\2</v>
+        <v>\FERNANDEZ SOSA LILIANA\IIBB\2023\02\</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2 - 27182653972 - WP IVA - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2 - 27182653972 - WP IIBB - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
       <c r="M18" s="4">
@@ -1786,11 +1819,11 @@
         <v>145</v>
       </c>
       <c r="H19" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>\SZYCHOWSKI KAREN\IVA\2022\7</v>
+      </c>
+      <c r="I19" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>\SZYCHOWSKI KAREN\IVA\2022\7</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>\SZYCHOWSKI KAREN\IIBB\2022\7</v>
       </c>
       <c r="J19" s="3" t="str">
@@ -1798,11 +1831,11 @@
         <v>Julio 2022</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2 - 27348916942 - WP IVA - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2 - 27348916942 - WP IIBB - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="M19" s="4">
@@ -1832,23 +1865,23 @@
         <v>44958</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" ref="H20:H21" si="10">G20&amp;"\"&amp;B20&amp;"\IVA\"&amp;YEAR(E20)&amp;"\"&amp;MONTH(E20)&amp;"\"</f>
-        <v>\POSADAS FIDUCIARIA SA\IVA\2023\2\</v>
+        <f t="shared" ref="H20:H21" si="10">G20&amp;"\"&amp;B20&amp;"\IVA\"&amp;YEAR(E20)&amp;"\"&amp;TEXT(MONTH(E20),"00")&amp;"\"</f>
+        <v>\POSADAS FIDUCIARIA SA\IVA\2023\02\</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\POSADAS FIDUCIARIA SA\IIBB\2023\2</v>
+        <f t="shared" ref="I20:I21" si="11">G20&amp;"\"&amp;B20&amp;"\IIBB\"&amp;YEAR(E20)&amp;"\"&amp;TEXT(MONTH(E20),"00")&amp;"\"</f>
+        <v>\POSADAS FIDUCIARIA SA\IIBB\2023\02\</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2 - 30708370122 - WP IVA - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2 - 30708370122 - WP IIBB - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
       <c r="M20" s="4">
@@ -1879,22 +1912,22 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>\SEMILLA ELVIES\IVA\2023\2\</v>
+        <v>\SEMILLA ELVIES\IVA\2023\02\</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SEMILLA ELVIES\IIBB\2023\2</v>
+        <f t="shared" si="11"/>
+        <v>\SEMILLA ELVIES\IIBB\2023\02\</v>
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3 - 27068286323 - WP IVA - 202302 - SEMILLA ELVIES</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3 - 27068286323 - WP IIBB - 202302 - SEMILLA ELVIES</v>
       </c>
       <c r="M21" s="4">
@@ -1927,11 +1960,11 @@
         <v>145</v>
       </c>
       <c r="H22" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>\PENSA MARIA EUGENIA\IVA\2022\7</v>
+      </c>
+      <c r="I22" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>\PENSA MARIA EUGENIA\IVA\2022\7</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>\PENSA MARIA EUGENIA\IIBB\2022\7</v>
       </c>
       <c r="J22" s="3" t="str">
@@ -1939,11 +1972,11 @@
         <v>Julio 2022</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3 - 27354872183 - WP IVA - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3 - 27354872183 - WP IIBB - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="M22" s="4">
@@ -1973,23 +2006,23 @@
         <v>44958</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" ref="H23:H51" si="11">G23&amp;"\"&amp;B23&amp;"\IVA\"&amp;YEAR(E23)&amp;"\"&amp;MONTH(E23)&amp;"\"</f>
-        <v>\CUCYTI SRL\IVA\2023\2\</v>
+        <f t="shared" ref="H23:H51" si="12">G23&amp;"\"&amp;B23&amp;"\IVA\"&amp;YEAR(E23)&amp;"\"&amp;TEXT(MONTH(E23),"00")&amp;"\"</f>
+        <v>\CUCYTI SRL\IVA\2023\02\</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CUCYTI SRL\IIBB\2023\2</v>
+        <f t="shared" ref="I23:I51" si="13">G23&amp;"\"&amp;B23&amp;"\IIBB\"&amp;YEAR(E23)&amp;"\"&amp;TEXT(MONTH(E23),"00")&amp;"\"</f>
+        <v>\CUCYTI SRL\IIBB\2023\02\</v>
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3 - 30672355393 - WP IVA - 202302 - CUCYTI SRL</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3 - 30672355393 - WP IIBB - 202302 - CUCYTI SRL</v>
       </c>
       <c r="M23" s="4">
@@ -2019,23 +2052,23 @@
         <v>44958</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\CARLOS ABELARDO SESMERO SRL\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\CARLOS ABELARDO SESMERO SRL\IVA\2023\02\</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CARLOS ABELARDO SESMERO SRL\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\CARLOS ABELARDO SESMERO SRL\IIBB\2023\02\</v>
       </c>
       <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3 - 30707912223 - WP IVA - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3 - 30707912223 - WP IIBB - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
       <c r="M24" s="4">
@@ -2065,23 +2098,23 @@
         <v>44958</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\TRANS. MISIONES SA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\TRANS. MISIONES SA\IVA\2023\02\</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\TRANS. MISIONES SA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\TRANS. MISIONES SA\IIBB\2023\02\</v>
       </c>
       <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3 - 30715577743 - WP IVA - 202302 - TRANS. MISIONES SA</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3 - 30715577743 - WP IIBB - 202302 - TRANS. MISIONES SA</v>
       </c>
       <c r="M25" s="4">
@@ -2111,23 +2144,23 @@
         <v>44958</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\DON LALO SRL\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\DON LALO SRL\IVA\2023\02\</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\DON LALO SRL\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\DON LALO SRL\IIBB\2023\02\</v>
       </c>
       <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3 - 30717537153 - WP IVA - 202302 - DON LALO SRL</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3 - 30717537153 - WP IIBB - 202302 - DON LALO SRL</v>
       </c>
       <c r="M26" s="4">
@@ -2157,23 +2190,23 @@
         <v>44958</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\FERNANDEZ SOSA RODOLFO\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\FERNANDEZ SOSA RODOLFO\IVA\2023\02\</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FERNANDEZ SOSA RODOLFO\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\FERNANDEZ SOSA RODOLFO\IIBB\2023\02\</v>
       </c>
       <c r="J27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 20168291834 - WP IVA - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 20168291834 - WP IIBB - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
       <c r="M27" s="4">
@@ -2203,23 +2236,23 @@
         <v>44958</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\SESMERO MARIA GABRIELA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\SESMERO MARIA GABRIELA\IVA\2023\02\</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SESMERO MARIA GABRIELA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\SESMERO MARIA GABRIELA\IIBB\2023\02\</v>
       </c>
       <c r="J28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 23149462074 - WP IVA - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 23149462074 - WP IIBB - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
       <c r="M28" s="4">
@@ -2249,23 +2282,23 @@
         <v>44958</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\FERREYRA CARMEN VICTORIA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\FERREYRA CARMEN VICTORIA\IVA\2023\02\</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FERREYRA CARMEN VICTORIA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\FERREYRA CARMEN VICTORIA\IIBB\2023\02\</v>
       </c>
       <c r="J29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 23342751644 - WP IVA - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 23342751644 - WP IIBB - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
       <c r="M29" s="4">
@@ -2295,23 +2328,23 @@
         <v>44958</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\SCOTO LUCILA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\SCOTO LUCILA\IVA\2023\02\</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SCOTO LUCILA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\SCOTO LUCILA\IIBB\2023\02\</v>
       </c>
       <c r="J30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 23351897074 - WP IVA - 202302 - SCOTO LUCILA</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 23351897074 - WP IIBB - 202302 - SCOTO LUCILA</v>
       </c>
       <c r="M30" s="4">
@@ -2341,23 +2374,23 @@
         <v>44958</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\TUFRO MALENA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\TUFRO MALENA\IVA\2023\02\</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\TUFRO MALENA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\TUFRO MALENA\IIBB\2023\02\</v>
       </c>
       <c r="J31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 27236873744 - WP IVA - 202302 - TUFRO MALENA</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 27236873744 - WP IIBB - 202302 - TUFRO MALENA</v>
       </c>
       <c r="M31" s="4">
@@ -2387,23 +2420,23 @@
         <v>44958</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\DVC SRL\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\DVC SRL\IVA\2023\02\</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\DVC SRL\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\DVC SRL\IIBB\2023\02\</v>
       </c>
       <c r="J32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 30709431834 - WP IVA - 202302 - DVC SRL</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 30709431834 - WP IIBB - 202302 - DVC SRL</v>
       </c>
       <c r="M32" s="4">
@@ -2433,23 +2466,23 @@
         <v>44958</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\VECINAS SRL\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\VECINAS SRL\IVA\2023\02\</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\VECINAS SRL\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\VECINAS SRL\IIBB\2023\02\</v>
       </c>
       <c r="J33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4 - 30715795864 - WP IVA - 202302 - VECINAS SRL</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4 - 30715795864 - WP IIBB - 202302 - VECINAS SRL</v>
       </c>
       <c r="M33" s="4">
@@ -2480,31 +2513,31 @@
         <v>44958</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\SZYCHOWSKI RICARDO\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\SZYCHOWSKI RICARDO\IVA\2023\02\</v>
       </c>
       <c r="I34" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SZYCHOWSKI RICARDO\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\SZYCHOWSKI RICARDO\IIBB\2023\02\</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" ref="J34:J65" si="12">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="J34:J65" si="14">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5 - 20074827455 - WP IVA - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5 - 20074827455 - WP IIBB - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34:M65" si="13">ROW(A34)</f>
+        <f t="shared" ref="M34:M65" si="15">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="N34" s="4" t="str">
-        <f t="shared" ref="N34:N65" si="14">RIGHT(D34,1)</f>
+        <f t="shared" ref="N34:N65" si="16">RIGHT(D34,1)</f>
         <v>5</v>
       </c>
     </row>
@@ -2526,31 +2559,31 @@
         <v>44958</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\FERREYRA MARCELO\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\FERREYRA MARCELO\IVA\2023\02\</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FERREYRA MARCELO\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\FERREYRA MARCELO\IIBB\2023\02\</v>
       </c>
       <c r="J35" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5 - 20170394845 - WP IVA - 202302 - FERREYRA MARCELO</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5 - 20170394845 - WP IIBB - 202302 - FERREYRA MARCELO</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="N35" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -2573,31 +2606,31 @@
         <v>44958</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\CANTELI GRACIELA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\CANTELI GRACIELA\IVA\2023\02\</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CANTELI GRACIELA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\CANTELI GRACIELA\IIBB\2023\02\</v>
       </c>
       <c r="J36" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5 - 27148268105 - WP IVA - 202302 - CANTELI GRACIELA</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5 - 27148268105 - WP IIBB - 202302 - CANTELI GRACIELA</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="N36" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -2620,31 +2653,31 @@
         <v>44958</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\CORONAS ALINE\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\CORONAS ALINE\IVA\2023\02\</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CORONAS ALINE\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\CORONAS ALINE\IIBB\2023\02\</v>
       </c>
       <c r="J37" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K37" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5 - 27171709925 - WP IVA - 202302 - CORONAS ALINE</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5 - 27171709925 - WP IIBB - 202302 - CORONAS ALINE</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="N37" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -2666,31 +2699,31 @@
         <v>44958</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\ASOC. SALUD MNES\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\ASOC. SALUD MNES\IVA\2023\02\</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\ASOC. SALUD MNES\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\ASOC. SALUD MNES\IIBB\2023\02\</v>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5 - 30708553715 - WP IVA - 202302 - ASOC. SALUD MNES</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5 - 30708553715 - WP IIBB - 202302 - ASOC. SALUD MNES</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="N38" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -2712,31 +2745,31 @@
         <v>44958</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\ENRIQUEZ RUBEN\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\ENRIQUEZ RUBEN\IVA\2023\02\</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\ENRIQUEZ RUBEN\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\ENRIQUEZ RUBEN\IIBB\2023\02\</v>
       </c>
       <c r="J39" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K39" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 20149466356 - WP IVA - 202302 - ENRIQUEZ RUBEN</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 20149466356 - WP IIBB - 202302 - ENRIQUEZ RUBEN</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="N39" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -2758,31 +2791,31 @@
         <v>44958</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\BEITIA IÑAKI\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\BEITIA IÑAKI\IVA\2023\02\</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\BEITIA IÑAKI\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\BEITIA IÑAKI\IIBB\2023\02\</v>
       </c>
       <c r="J40" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K40" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 20416948926 - WP IVA - 202302 - BEITIA IÑAKI</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 20416948926 - WP IIBB - 202302 - BEITIA IÑAKI</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="N40" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -2804,31 +2837,31 @@
         <v>44958</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\LAZCOZ VIOLETA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\LAZCOZ VIOLETA\IVA\2023\02\</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\LAZCOZ VIOLETA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\LAZCOZ VIOLETA\IIBB\2023\02\</v>
       </c>
       <c r="J41" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K41" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 27058846916 - WP IVA - 202302 - LAZCOZ VIOLETA</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 27058846916 - WP IIBB - 202302 - LAZCOZ VIOLETA</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="N41" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -2850,31 +2883,31 @@
         <v>44958</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\SZYCHOWSKI AMANDA \IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\SZYCHOWSKI AMANDA \IVA\2023\02\</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SZYCHOWSKI AMANDA \IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\SZYCHOWSKI AMANDA \IIBB\2023\02\</v>
       </c>
       <c r="J42" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K42" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6 - 27201178776 - WP IVA - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">6 - 27201178776 - WP IIBB - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="N42" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -2896,31 +2929,31 @@
         <v>44958</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\CARBALLO GRACIELA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\CARBALLO GRACIELA\IVA\2023\02\</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CARBALLO GRACIELA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\CARBALLO GRACIELA\IIBB\2023\02\</v>
       </c>
       <c r="J43" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K43" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 27261827366 - WP IVA - 202302 - CARBALLO GRACIELA</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 27261827366 - WP IIBB - 202302 - CARBALLO GRACIELA</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="N43" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -2942,31 +2975,31 @@
         <v>44958</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\PREST. SANAT. SA\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\PREST. SANAT. SA\IVA\2023\02\</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\PREST. SANAT. SA\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\PREST. SANAT. SA\IIBB\2023\02\</v>
       </c>
       <c r="J44" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K44" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 30687910636 - WP IVA - 202302 - PREST. SANAT. SA</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 30687910636 - WP IIBB - 202302 - PREST. SANAT. SA</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="N44" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -2988,31 +3021,31 @@
         <v>44958</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\CONSULTORIO SAN MARTIN\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\CONSULTORIO SAN MARTIN\IVA\2023\02\</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CONSULTORIO SAN MARTIN\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\CONSULTORIO SAN MARTIN\IIBB\2023\02\</v>
       </c>
       <c r="J45" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K45" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 30715347926 - WP IVA - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 30715347926 - WP IIBB - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="N45" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -3034,31 +3067,31 @@
         <v>44958</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\PENSA PROPIEDADES\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\PENSA PROPIEDADES\IVA\2023\02\</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\PENSA PROPIEDADES\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\PENSA PROPIEDADES\IIBB\2023\02\</v>
       </c>
       <c r="J46" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K46" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6 - 30716503816 - WP IVA - 202302 - PENSA PROPIEDADES</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6 - 30716503816 - WP IIBB - 202302 - PENSA PROPIEDADES</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="N46" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -3081,31 +3114,31 @@
         <v>44958</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\PENSA ANIBAL\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\PENSA ANIBAL\IVA\2023\02\</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\PENSA ANIBAL\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\PENSA ANIBAL\IIBB\2023\02\</v>
       </c>
       <c r="J47" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K47" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 20077065637 - WP IVA - 202302 - PENSA ANIBAL</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 20077065637 - WP IIBB - 202302 - PENSA ANIBAL</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="N47" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3128,31 +3161,31 @@
         <v>44958</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\TABBIA ENRIQUE\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\TABBIA ENRIQUE\IVA\2023\02\</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\TABBIA ENRIQUE\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\TABBIA ENRIQUE\IIBB\2023\02\</v>
       </c>
       <c r="J48" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K48" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 20130056637 - WP IVA - 202302 - TABBIA ENRIQUE</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 20130056637 - WP IIBB - 202302 - TABBIA ENRIQUE</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="N48" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3174,31 +3207,31 @@
         <v>44958</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\HOPE HUGO\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\HOPE HUGO\IVA\2023\02\</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\HOPE HUGO\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\HOPE HUGO\IIBB\2023\02\</v>
       </c>
       <c r="J49" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K49" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 20170395167 - WP IVA - 202302 - HOPE HUGO</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 20170395167 - WP IIBB - 202302 - HOPE HUGO</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="N49" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3221,31 +3254,31 @@
         <v>44958</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\VARENIZA NESTOR LEONEL\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\VARENIZA NESTOR LEONEL\IVA\2023\02\</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\VARENIZA NESTOR LEONEL\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\VARENIZA NESTOR LEONEL\IIBB\2023\02\</v>
       </c>
       <c r="J50" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 20301650087 - WP IVA - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 20301650087 - WP IIBB - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="N50" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3267,31 +3300,31 @@
         <v>44958</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>\FERREYRA ANDRES\IVA\2023\2\</v>
+        <f t="shared" si="12"/>
+        <v>\FERREYRA ANDRES\IVA\2023\02\</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FERREYRA ANDRES\IIBB\2023\2</v>
+        <f t="shared" si="13"/>
+        <v>\FERREYRA ANDRES\IIBB\2023\02\</v>
       </c>
       <c r="J51" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 20327623967 - WP IVA - 202302 - FERREYRA ANDRES</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 20327623967 - WP IIBB - 202302 - FERREYRA ANDRES</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="N51" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3316,31 +3349,31 @@
         <v>145</v>
       </c>
       <c r="H52" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>\PENSA LUCIANO\IVA\2022\7</v>
+      </c>
+      <c r="I52" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>\PENSA LUCIANO\IVA\2022\7</v>
-      </c>
-      <c r="I52" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>\PENSA LUCIANO\IIBB\2022\7</v>
       </c>
       <c r="J52" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Julio 2022</v>
       </c>
       <c r="K52" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 20334250327 - WP IVA - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 20334250327 - WP IIBB - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="N52" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3362,31 +3395,31 @@
         <v>44958</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" ref="H53:H75" si="15">G53&amp;"\"&amp;B53&amp;"\IVA\"&amp;YEAR(E53)&amp;"\"&amp;MONTH(E53)&amp;"\"</f>
-        <v>\SCOTTO OLGA MARIA\IVA\2023\2\</v>
+        <f t="shared" ref="H53:H75" si="17">G53&amp;"\"&amp;B53&amp;"\IVA\"&amp;YEAR(E53)&amp;"\"&amp;TEXT(MONTH(E53),"00")&amp;"\"</f>
+        <v>\SCOTTO OLGA MARIA\IVA\2023\02\</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SCOTTO OLGA MARIA\IIBB\2023\2</v>
+        <f t="shared" ref="I53:I75" si="18">G53&amp;"\"&amp;B53&amp;"\IIBB\"&amp;YEAR(E53)&amp;"\"&amp;TEXT(MONTH(E53),"00")&amp;"\"</f>
+        <v>\SCOTTO OLGA MARIA\IIBB\2023\02\</v>
       </c>
       <c r="J53" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K53" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7 - 27109797257 - WP IVA - 202302 - SCOTTO OLGA MARIA</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7 - 27109797257 - WP IIBB - 202302 - SCOTTO OLGA MARIA</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="N53" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3408,31 +3441,31 @@
         <v>44958</v>
       </c>
       <c r="H54" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\ROKO EUGENIA\IVA\2023\02\</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\ROKO EUGENIA\IIBB\2023\02\</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>7 - 27217236547 - WP IVA - 202302 - ROKO EUGENIA</v>
+      </c>
+      <c r="L54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>7 - 27217236547 - WP IIBB - 202302 - ROKO EUGENIA</v>
+      </c>
+      <c r="M54" s="4">
         <f t="shared" si="15"/>
-        <v>\ROKO EUGENIA\IVA\2023\2\</v>
-      </c>
-      <c r="I54" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\ROKO EUGENIA\IIBB\2023\2</v>
-      </c>
-      <c r="J54" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>7 - 27217236547 - WP IVA - 202302 - ROKO EUGENIA</v>
-      </c>
-      <c r="L54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 27217236547 - WP IIBB - 202302 - ROKO EUGENIA</v>
-      </c>
-      <c r="M54" s="4">
-        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="N54" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3454,31 +3487,31 @@
         <v>44958</v>
       </c>
       <c r="H55" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\BUSTOS-HOPE S.H\IVA\2023\02\</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\BUSTOS-HOPE S.H\IIBB\2023\02\</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>7 - 30650940667 - WP IVA - 202302 - BUSTOS-HOPE S.H</v>
+      </c>
+      <c r="L55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>7 - 30650940667 - WP IIBB - 202302 - BUSTOS-HOPE S.H</v>
+      </c>
+      <c r="M55" s="4">
         <f t="shared" si="15"/>
-        <v>\BUSTOS-HOPE S.H\IVA\2023\2\</v>
-      </c>
-      <c r="I55" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\BUSTOS-HOPE S.H\IIBB\2023\2</v>
-      </c>
-      <c r="J55" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>7 - 30650940667 - WP IVA - 202302 - BUSTOS-HOPE S.H</v>
-      </c>
-      <c r="L55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30650940667 - WP IIBB - 202302 - BUSTOS-HOPE S.H</v>
-      </c>
-      <c r="M55" s="4">
-        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="N55" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3500,31 +3533,31 @@
         <v>44958</v>
       </c>
       <c r="H56" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\CEBAC\IVA\2023\02\</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\CEBAC\IIBB\2023\02\</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>7 - 30672372697 - WP IVA - 202302 - CEBAC</v>
+      </c>
+      <c r="L56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>7 - 30672372697 - WP IIBB - 202302 - CEBAC</v>
+      </c>
+      <c r="M56" s="4">
         <f t="shared" si="15"/>
-        <v>\CEBAC\IVA\2023\2\</v>
-      </c>
-      <c r="I56" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CEBAC\IIBB\2023\2</v>
-      </c>
-      <c r="J56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>7 - 30672372697 - WP IVA - 202302 - CEBAC</v>
-      </c>
-      <c r="L56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30672372697 - WP IIBB - 202302 - CEBAC</v>
-      </c>
-      <c r="M56" s="4">
-        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="N56" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3546,31 +3579,31 @@
         <v>44958</v>
       </c>
       <c r="H57" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\AITA S.A.\IVA\2023\02\</v>
+      </c>
+      <c r="I57" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\AITA S.A.\IIBB\2023\02\</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>7 - 30709419567 - WP IVA - 202302 - AITA S.A.</v>
+      </c>
+      <c r="L57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>7 - 30709419567 - WP IIBB - 202302 - AITA S.A.</v>
+      </c>
+      <c r="M57" s="4">
         <f t="shared" si="15"/>
-        <v>\AITA S.A.\IVA\2023\2\</v>
-      </c>
-      <c r="I57" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\AITA S.A.\IIBB\2023\2</v>
-      </c>
-      <c r="J57" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>7 - 30709419567 - WP IVA - 202302 - AITA S.A.</v>
-      </c>
-      <c r="L57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30709419567 - WP IIBB - 202302 - AITA S.A.</v>
-      </c>
-      <c r="M57" s="4">
-        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="N57" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3592,31 +3625,31 @@
         <v>44958</v>
       </c>
       <c r="H58" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\COND. LARZABAL\IVA\2023\02\</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\COND. LARZABAL\IIBB\2023\02\</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>7 - 30712026797 - WP IVA - 202302 - COND. LARZABAL</v>
+      </c>
+      <c r="L58" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>7 - 30712026797 - WP IIBB - 202302 - COND. LARZABAL</v>
+      </c>
+      <c r="M58" s="4">
         <f t="shared" si="15"/>
-        <v>\COND. LARZABAL\IVA\2023\2\</v>
-      </c>
-      <c r="I58" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\COND. LARZABAL\IIBB\2023\2</v>
-      </c>
-      <c r="J58" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>7 - 30712026797 - WP IVA - 202302 - COND. LARZABAL</v>
-      </c>
-      <c r="L58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30712026797 - WP IIBB - 202302 - COND. LARZABAL</v>
-      </c>
-      <c r="M58" s="4">
-        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="N58" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -3639,31 +3672,31 @@
         <v>44958</v>
       </c>
       <c r="H59" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\CASTRO OLIVERA CARLOS\IVA\2023\02\</v>
+      </c>
+      <c r="I59" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\CASTRO OLIVERA CARLOS\IIBB\2023\02\</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 20082750488 - WP IVA - 202302 - CASTRO OLIVERA CARLOS</v>
+      </c>
+      <c r="L59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 20082750488 - WP IIBB - 202302 - CASTRO OLIVERA CARLOS</v>
+      </c>
+      <c r="M59" s="4">
         <f t="shared" si="15"/>
-        <v>\CASTRO OLIVERA CARLOS\IVA\2023\2\</v>
-      </c>
-      <c r="I59" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CASTRO OLIVERA CARLOS\IIBB\2023\2</v>
-      </c>
-      <c r="J59" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K59" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 20082750488 - WP IVA - 202302 - CASTRO OLIVERA CARLOS</v>
-      </c>
-      <c r="L59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 20082750488 - WP IIBB - 202302 - CASTRO OLIVERA CARLOS</v>
-      </c>
-      <c r="M59" s="4">
-        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="N59" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -3686,31 +3719,31 @@
         <v>44958</v>
       </c>
       <c r="H60" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\URRUTIA DIEGO\IVA\2023\02\</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\URRUTIA DIEGO\IIBB\2023\02\</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 20230966738 - WP IVA - 202302 - URRUTIA DIEGO</v>
+      </c>
+      <c r="L60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 20230966738 - WP IIBB - 202302 - URRUTIA DIEGO</v>
+      </c>
+      <c r="M60" s="4">
         <f t="shared" si="15"/>
-        <v>\URRUTIA DIEGO\IVA\2023\2\</v>
-      </c>
-      <c r="I60" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\URRUTIA DIEGO\IIBB\2023\2</v>
-      </c>
-      <c r="J60" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K60" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 20230966738 - WP IVA - 202302 - URRUTIA DIEGO</v>
-      </c>
-      <c r="L60" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 20230966738 - WP IIBB - 202302 - URRUTIA DIEGO</v>
-      </c>
-      <c r="M60" s="4">
-        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="N60" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -3732,31 +3765,31 @@
         <v>44958</v>
       </c>
       <c r="H61" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\CASTRO OLIVERA GONZALO\IVA\2023\02\</v>
+      </c>
+      <c r="I61" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\CASTRO OLIVERA GONZALO\IIBB\2023\02\</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 20303980378 - WP IVA - 202302 - CASTRO OLIVERA GONZALO</v>
+      </c>
+      <c r="L61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 20303980378 - WP IIBB - 202302 - CASTRO OLIVERA GONZALO</v>
+      </c>
+      <c r="M61" s="4">
         <f t="shared" si="15"/>
-        <v>\CASTRO OLIVERA GONZALO\IVA\2023\2\</v>
-      </c>
-      <c r="I61" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\CASTRO OLIVERA GONZALO\IIBB\2023\2</v>
-      </c>
-      <c r="J61" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K61" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 20303980378 - WP IVA - 202302 - CASTRO OLIVERA GONZALO</v>
-      </c>
-      <c r="L61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 20303980378 - WP IIBB - 202302 - CASTRO OLIVERA GONZALO</v>
-      </c>
-      <c r="M61" s="4">
-        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="N61" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -3778,31 +3811,31 @@
         <v>44958</v>
       </c>
       <c r="H62" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\MARTIN ADRIANA\IVA\2023\02\</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\MARTIN ADRIANA\IIBB\2023\02\</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 27163651918 - WP IVA - 202302 - MARTIN ADRIANA</v>
+      </c>
+      <c r="L62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 27163651918 - WP IIBB - 202302 - MARTIN ADRIANA</v>
+      </c>
+      <c r="M62" s="4">
         <f t="shared" si="15"/>
-        <v>\MARTIN ADRIANA\IVA\2023\2\</v>
-      </c>
-      <c r="I62" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\MARTIN ADRIANA\IIBB\2023\2</v>
-      </c>
-      <c r="J62" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K62" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 27163651918 - WP IVA - 202302 - MARTIN ADRIANA</v>
-      </c>
-      <c r="L62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 27163651918 - WP IIBB - 202302 - MARTIN ADRIANA</v>
-      </c>
-      <c r="M62" s="4">
-        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="N62" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -3824,31 +3857,31 @@
         <v>44958</v>
       </c>
       <c r="H63" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\SPAGNOLI SUSANA\IVA\2023\02\</v>
+      </c>
+      <c r="I63" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\SPAGNOLI SUSANA\IIBB\2023\02\</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 27201932268 - WP IVA - 202302 - SPAGNOLI SUSANA</v>
+      </c>
+      <c r="L63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 27201932268 - WP IIBB - 202302 - SPAGNOLI SUSANA</v>
+      </c>
+      <c r="M63" s="4">
         <f t="shared" si="15"/>
-        <v>\SPAGNOLI SUSANA\IVA\2023\2\</v>
-      </c>
-      <c r="I63" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\SPAGNOLI SUSANA\IIBB\2023\2</v>
-      </c>
-      <c r="J63" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 27201932268 - WP IVA - 202302 - SPAGNOLI SUSANA</v>
-      </c>
-      <c r="L63" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 27201932268 - WP IIBB - 202302 - SPAGNOLI SUSANA</v>
-      </c>
-      <c r="M63" s="4">
-        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="N63" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -3870,31 +3903,31 @@
         <v>44958</v>
       </c>
       <c r="H64" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\FORESTAL SA\IVA\2023\02\</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\FORESTAL SA\IIBB\2023\02\</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 30701299538 - WP IVA - 202302 - FORESTAL SA</v>
+      </c>
+      <c r="L64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 30701299538 - WP IIBB - 202302 - FORESTAL SA</v>
+      </c>
+      <c r="M64" s="4">
         <f t="shared" si="15"/>
-        <v>\FORESTAL SA\IVA\2023\2\</v>
-      </c>
-      <c r="I64" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FORESTAL SA\IIBB\2023\2</v>
-      </c>
-      <c r="J64" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 30701299538 - WP IVA - 202302 - FORESTAL SA</v>
-      </c>
-      <c r="L64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 30701299538 - WP IIBB - 202302 - FORESTAL SA</v>
-      </c>
-      <c r="M64" s="4">
-        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="N64" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -3916,37 +3949,37 @@
         <v>44958</v>
       </c>
       <c r="H65" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\FIDEIC. PDAS INMOB\IVA\2023\02\</v>
+      </c>
+      <c r="I65" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\FIDEIC. PDAS INMOB\IIBB\2023\02\</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K65" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>8 - 30708626348 - WP IVA - 202302 - FIDEIC. PDAS INMOB</v>
+      </c>
+      <c r="L65" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>8 - 30708626348 - WP IIBB - 202302 - FIDEIC. PDAS INMOB</v>
+      </c>
+      <c r="M65" s="4">
         <f t="shared" si="15"/>
-        <v>\FIDEIC. PDAS INMOB\IVA\2023\2\</v>
-      </c>
-      <c r="I65" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\FIDEIC. PDAS INMOB\IIBB\2023\2</v>
-      </c>
-      <c r="J65" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>8 - 30708626348 - WP IVA - 202302 - FIDEIC. PDAS INMOB</v>
-      </c>
-      <c r="L65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 30708626348 - WP IIBB - 202302 - FIDEIC. PDAS INMOB</v>
-      </c>
-      <c r="M65" s="4">
-        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="N65" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="16">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="19">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -3962,37 +3995,37 @@
         <v>44958</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\HOPE RICARDO\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\HOPE RICARDO\IVA\2023\02\</v>
       </c>
       <c r="I66" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\HOPE RICARDO\IIBB\2023\2</v>
+        <f t="shared" si="18"/>
+        <v>\HOPE RICARDO\IIBB\2023\02\</v>
       </c>
       <c r="J66" s="3" t="str">
-        <f t="shared" ref="J66:J75" si="17">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="J66:J75" si="20">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="K66" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9 - 20149466739 - WP IVA - 202302 - HOPE RICARDO</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9 - 20149466739 - WP IIBB - 202302 - HOPE RICARDO</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" ref="M66:M75" si="18">ROW(A66)</f>
+        <f t="shared" ref="M66:M75" si="21">ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="N66" s="4" t="str">
-        <f t="shared" ref="N66:N75" si="19">RIGHT(D66,1)</f>
+        <f t="shared" ref="N66:N75" si="22">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -4008,39 +4041,39 @@
         <v>44958</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\BEITIA CRISPIN\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\BEITIA CRISPIN\IVA\2023\02\</v>
       </c>
       <c r="I67" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>\BEITIA CRISPIN\IIBB\2023\2</v>
+        <f t="shared" si="18"/>
+        <v>\BEITIA CRISPIN\IIBB\2023\02\</v>
       </c>
       <c r="J67" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f t="shared" ref="K67:K75" si="20">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IVA - ",TEXT(J67,"AAAAMM")," - ",B67)</f>
+        <f t="shared" ref="K67:K75" si="23">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IVA - ",TEXT(J67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - WP IVA - 202302 - BEITIA CRISPIN</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" ref="L67:L75" si="21">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IIBB - ",TEXT(J67,"AAAAMM")," - ",B67)</f>
+        <f t="shared" ref="L67:L75" si="24">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ","WP IIBB - ",TEXT(J67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - WP IIBB - 202302 - BEITIA CRISPIN</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>67</v>
       </c>
       <c r="N67" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B68" t="s">
         <v>104</v>
       </c>
@@ -4054,37 +4087,37 @@
         <v>44958</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\BUSTOS GONZALO\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\BUSTOS GONZALO\IVA\2023\02\</v>
       </c>
       <c r="I68" s="4" t="str">
-        <f t="shared" ref="I68:I75" si="22">G68&amp;"\"&amp;B68&amp;"\IIBB\"&amp;YEAR(E68)&amp;"\"&amp;MONTH(E68)</f>
-        <v>\BUSTOS GONZALO\IIBB\2023\2</v>
+        <f t="shared" si="18"/>
+        <v>\BUSTOS GONZALO\IIBB\2023\02\</v>
       </c>
       <c r="J68" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Febrero 2023</v>
       </c>
       <c r="K68" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9 - 20246008109 - WP IVA - 202302 - BUSTOS GONZALO</v>
       </c>
       <c r="L68" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 20246008109 - WP IIBB - 202302 - BUSTOS GONZALO</v>
+      </c>
+      <c r="M68" s="4">
         <f t="shared" si="21"/>
-        <v>9 - 20246008109 - WP IIBB - 202302 - BUSTOS GONZALO</v>
-      </c>
-      <c r="M68" s="4">
-        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="N68" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -4101,39 +4134,39 @@
         <v>44958</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\LINDSTROM PLINIO\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\LINDSTROM PLINIO\IVA\2023\02\</v>
       </c>
       <c r="I69" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\LINDSTROM PLINIO\IIBB\2023\02\</v>
+      </c>
+      <c r="J69" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K69" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 23120538209 - WP IVA - 202302 - LINDSTROM PLINIO</v>
+      </c>
+      <c r="L69" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 23120538209 - WP IIBB - 202302 - LINDSTROM PLINIO</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="N69" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\LINDSTROM PLINIO\IIBB\2023\2</v>
-      </c>
-      <c r="J69" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K69" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 23120538209 - WP IVA - 202302 - LINDSTROM PLINIO</v>
-      </c>
-      <c r="L69" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 23120538209 - WP IIBB - 202302 - LINDSTROM PLINIO</v>
-      </c>
-      <c r="M69" s="4">
-        <f t="shared" si="18"/>
-        <v>69</v>
-      </c>
-      <c r="N69" s="4" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B70" t="s">
         <v>107</v>
       </c>
@@ -4147,39 +4180,39 @@
         <v>44958</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\SOTO GERONIMO\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\SOTO GERONIMO\IVA\2023\02\</v>
       </c>
       <c r="I70" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\SOTO GERONIMO\IIBB\2023\02\</v>
+      </c>
+      <c r="J70" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 23242946669 - WP IVA - 202302 - SOTO GERONIMO</v>
+      </c>
+      <c r="L70" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 23242946669 - WP IIBB - 202302 - SOTO GERONIMO</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="N70" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\SOTO GERONIMO\IIBB\2023\2</v>
-      </c>
-      <c r="J70" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K70" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 23242946669 - WP IVA - 202302 - SOTO GERONIMO</v>
-      </c>
-      <c r="L70" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 23242946669 - WP IIBB - 202302 - SOTO GERONIMO</v>
-      </c>
-      <c r="M70" s="4">
-        <f t="shared" si="18"/>
-        <v>70</v>
-      </c>
-      <c r="N70" s="4" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
@@ -4193,39 +4226,39 @@
         <v>44958</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\LIONETO CAROLINA\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\LIONETO CAROLINA\IVA\2023\02\</v>
       </c>
       <c r="I71" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\LIONETO CAROLINA\IIBB\2023\02\</v>
+      </c>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K71" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 27173878309 - WP IVA - 202302 - LIONETO CAROLINA</v>
+      </c>
+      <c r="L71" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 27173878309 - WP IIBB - 202302 - LIONETO CAROLINA</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="N71" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\LIONETO CAROLINA\IIBB\2023\2</v>
-      </c>
-      <c r="J71" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K71" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 27173878309 - WP IVA - 202302 - LIONETO CAROLINA</v>
-      </c>
-      <c r="L71" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 27173878309 - WP IIBB - 202302 - LIONETO CAROLINA</v>
-      </c>
-      <c r="M71" s="4">
-        <f t="shared" si="18"/>
-        <v>71</v>
-      </c>
-      <c r="N71" s="4" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B72" t="s">
         <v>63</v>
       </c>
@@ -4239,39 +4272,39 @@
         <v>44958</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\COND. INVERNADA\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\COND. INVERNADA\IVA\2023\02\</v>
       </c>
       <c r="I72" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\COND. INVERNADA\IIBB\2023\02\</v>
+      </c>
+      <c r="J72" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K72" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 30715085409 - WP IVA - 202302 - COND. INVERNADA</v>
+      </c>
+      <c r="L72" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 30715085409 - WP IIBB - 202302 - COND. INVERNADA</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="N72" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\COND. INVERNADA\IIBB\2023\2</v>
-      </c>
-      <c r="J72" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K72" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 30715085409 - WP IVA - 202302 - COND. INVERNADA</v>
-      </c>
-      <c r="L72" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 30715085409 - WP IIBB - 202302 - COND. INVERNADA</v>
-      </c>
-      <c r="M72" s="4">
-        <f t="shared" si="18"/>
-        <v>72</v>
-      </c>
-      <c r="N72" s="4" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B73" t="s">
         <v>65</v>
       </c>
@@ -4285,39 +4318,39 @@
         <v>44958</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\FAX SRL\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\FAX SRL\IVA\2023\02\</v>
       </c>
       <c r="I73" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\FAX SRL\IIBB\2023\02\</v>
+      </c>
+      <c r="J73" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K73" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 33653520439 - WP IVA - 202302 - FAX SRL</v>
+      </c>
+      <c r="L73" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 33653520439 - WP IIBB - 202302 - FAX SRL</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="21"/>
+        <v>73</v>
+      </c>
+      <c r="N73" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\FAX SRL\IIBB\2023\2</v>
-      </c>
-      <c r="J73" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K73" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 33653520439 - WP IVA - 202302 - FAX SRL</v>
-      </c>
-      <c r="L73" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 33653520439 - WP IIBB - 202302 - FAX SRL</v>
-      </c>
-      <c r="M73" s="4">
-        <f t="shared" si="18"/>
-        <v>73</v>
-      </c>
-      <c r="N73" s="4" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
@@ -4331,39 +4364,39 @@
         <v>44958</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\KM 0 SA\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\KM 0 SA\IVA\2023\02\</v>
       </c>
       <c r="I74" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\KM 0 SA\IIBB\2023\02\</v>
+      </c>
+      <c r="J74" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K74" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 33712370829 - WP IVA - 202302 - KM 0 SA</v>
+      </c>
+      <c r="L74" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 33712370829 - WP IIBB - 202302 - KM 0 SA</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" si="21"/>
+        <v>74</v>
+      </c>
+      <c r="N74" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\KM 0 SA\IIBB\2023\2</v>
-      </c>
-      <c r="J74" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K74" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 33712370829 - WP IVA - 202302 - KM 0 SA</v>
-      </c>
-      <c r="L74" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 33712370829 - WP IIBB - 202302 - KM 0 SA</v>
-      </c>
-      <c r="M74" s="4">
-        <f t="shared" si="18"/>
-        <v>74</v>
-      </c>
-      <c r="N74" s="4" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
       <c r="B75" t="s">
         <v>67</v>
       </c>
@@ -4377,31 +4410,31 @@
         <v>44958</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>\INMUEBLES SRL\IVA\2023\2\</v>
+        <f t="shared" si="17"/>
+        <v>\INMUEBLES SRL\IVA\2023\02\</v>
       </c>
       <c r="I75" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>\INMUEBLES SRL\IIBB\2023\02\</v>
+      </c>
+      <c r="J75" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="K75" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>9 - 33712529909 - WP IVA - 202302 - INMUEBLES SRL</v>
+      </c>
+      <c r="L75" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>9 - 33712529909 - WP IIBB - 202302 - INMUEBLES SRL</v>
+      </c>
+      <c r="M75" s="4">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="N75" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>\INMUEBLES SRL\IIBB\2023\2</v>
-      </c>
-      <c r="J75" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="K75" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>9 - 33712529909 - WP IVA - 202302 - INMUEBLES SRL</v>
-      </c>
-      <c r="L75" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>9 - 33712529909 - WP IIBB - 202302 - INMUEBLES SRL</v>
-      </c>
-      <c r="M75" s="4">
-        <f t="shared" si="18"/>
-        <v>75</v>
-      </c>
-      <c r="N75" s="4" t="str">
-        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
